--- a/vacation_template.xlsx
+++ b/vacation_template.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\vacation-calculator-lv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\vacation-calculator-lv-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D11281-2EF1-4FF0-9F26-AFEAFC46F481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B1358B-72C2-4A70-87C0-5222D51F107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="vacation_2021" sheetId="1" r:id="rId1"/>
+    <sheet name="vacation_2weeks" sheetId="1" r:id="rId1"/>
+    <sheet name="vacation_daily" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +30,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>atšķirība</t>
+  </si>
+  <si>
+    <t>Marts</t>
+  </si>
+  <si>
+    <t>Maijs</t>
+  </si>
+  <si>
+    <t>Augusts</t>
+  </si>
+  <si>
+    <t>Septembris</t>
+  </si>
+  <si>
+    <t>Oktobris</t>
+  </si>
+  <si>
+    <t>Novembris</t>
+  </si>
+  <si>
+    <t>Decembris</t>
+  </si>
+  <si>
+    <t>Janvāris</t>
+  </si>
+  <si>
+    <t>Februāris</t>
+  </si>
+  <si>
+    <t>Aprīlis</t>
+  </si>
+  <si>
+    <t>Jūnijs</t>
+  </si>
+  <si>
+    <t>Jūlijs</t>
+  </si>
+  <si>
+    <t>Katras atsevišķas atvaļinājuma dienas ienākumu atšķirība</t>
+  </si>
+  <si>
+    <t>Divu nedēļu atvaļinājuma ietekme uz kopējo algu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -180,6 +234,33 @@
       <family val="2"/>
       <charset val="186"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Open Sans For If"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Open Sans For If"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Open Sans For If"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans For If"/>
+      <charset val="186"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -477,6 +558,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,10 +634,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -883,689 +1014,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="13" width="7.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="12">
-      <c r="B2" s="2">
+    <row r="1" spans="1:13">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.8">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="12">
+      <c r="A3" s="9">
         <v>2025</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E3" s="9">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G3" s="9">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H3" s="9">
         <v>7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I3" s="9">
         <v>8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="J3" s="9">
         <v>9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="K3" s="9">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="L3" s="9">
         <v>11</v>
       </c>
-      <c r="N2" s="2">
+      <c r="M3" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="12">
-      <c r="B3" s="2">
+    <row r="4" spans="1:13" ht="12">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>1.0343</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
         <v>0.93540000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="12">
-      <c r="B4" s="2">
+    <row r="5" spans="1:13" ht="12">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>0.97160000000000002</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="12">
-      <c r="B5" s="2">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="12">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10">
         <v>0.97340000000000004</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D6" s="10">
         <v>1.0008999999999999</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>0.95120000000000005</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="2:14" ht="12">
-      <c r="B6" s="2">
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="12">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
         <v>1.0165999999999999</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" ht="12">
-      <c r="B7" s="2">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="12">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="12">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.0142</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
+        <v>1.0501</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="12">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <v>1.0630999999999999</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="12">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
+        <v>1.0343</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <v>0.93540000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="12">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="12">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="12">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="12">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.0142</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10">
+        <v>1.0501</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="12">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>1.0630999999999999</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" ht="12">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
+        <v>1.0343</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="12">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="12">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="12">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="12">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1.0142</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10">
+        <v>1.0501</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="12">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="12">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
+        <v>1.0402</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
+        <v>1.0139</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="12">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.9889</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="12">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
+        <v>1.0274000000000001</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="12">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="12">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
+        <v>1.0025999999999999</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="12">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <v>1.0383</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="12">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
+        <v>1.0501</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10">
+        <v>0.98340000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10">
+        <v>1.054</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="12">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10">
+        <v>0.9738</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="B4:M34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD4196-EFB7-4C26-874E-BFF0E32D5C50}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.4"/>
+  <cols>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="49.8" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="21">
+      <c r="C3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.399999999999999">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.0393700787401501</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.399999999999999">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.399999999999999">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.0161290322580601</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.399999999999999">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.96774193548387</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="12">
-      <c r="B8" s="2">
+    </row>
+    <row r="8" spans="2:9" ht="20.399999999999999">
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.99173553719008201</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.399999999999999">
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.94214876033057804</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.399999999999999">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.1311475409836</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.399999999999999">
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.0243902439024299</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.399999999999999">
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.06451612903225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.399999999999999">
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.1040000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.399999999999999">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.0142</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>1.0501</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" ht="12">
-      <c r="B9" s="2">
+      <c r="D14" s="6">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="20.399999999999999">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>1.0630999999999999</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" ht="12">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1">
-        <v>1.0343</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>0.93540000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="12">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" ht="12">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0008999999999999</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" ht="12">
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>1.0165999999999999</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" ht="12">
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" ht="12">
-      <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0142</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
-        <v>1.0501</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" ht="12">
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>0.98309999999999997</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
-        <v>1.0630999999999999</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" ht="12">
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>1.0343</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <v>0.9556</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="12">
-      <c r="B18" s="2">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" ht="12">
-      <c r="B19" s="2">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.0008999999999999</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" ht="12">
-      <c r="B20" s="2">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>1.0165999999999999</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" ht="12">
-      <c r="B21" s="2">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" ht="12">
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.0142</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1">
-        <v>1.0501</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" ht="12">
-      <c r="B23" s="2">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="12">
-      <c r="B24" s="2">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1">
-        <v>1.0402</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="12">
-      <c r="B25" s="2">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>1.0139</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" ht="12">
-      <c r="B26" s="2">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.9889</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <v>0.94940000000000002</v>
-      </c>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="12">
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <v>1.0274000000000001</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="12">
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <v>0.97170000000000001</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="12">
-      <c r="B29" s="2">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.99150000000000005</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1">
-        <v>1.0025999999999999</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" ht="12">
-      <c r="B30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>1.0383</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" ht="12">
-      <c r="B31" s="2">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1">
-        <v>1.0501</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1">
-        <v>0.98340000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="12">
-      <c r="B32" s="2">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
-        <v>1.054</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" ht="12">
-      <c r="B33" s="2">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
-        <v>0.9738</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="D15" s="6">
+        <v>0.89763779527558996</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="C3:N33">
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
